--- a/Seguimiento Servicio Social.xlsx
+++ b/Seguimiento Servicio Social.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\212707193\Documents\MSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio Omar\Documents\GitHub\servicio-social\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{42CA10AF-039C-43B8-920D-A8CE7E30DC96}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2AE0EF64-AD2B-49AF-8100-6D414C123A73}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Semana</t>
   </si>
@@ -73,12 +72,15 @@
   </si>
   <si>
     <t>Ninguno</t>
+  </si>
+  <si>
+    <t>Investigacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,14 +593,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7799A116-A191-4898-BEAF-13C78EE7DD53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
@@ -664,8 +666,12 @@
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -829,7 +835,7 @@
     <row r="32" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="9">
         <f>SUM(C5:C31)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25"/>

--- a/Seguimiento Servicio Social.xlsx
+++ b/Seguimiento Servicio Social.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio Omar\Documents\GitHub\servicio-social\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio Omar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Semana</t>
   </si>
@@ -74,7 +74,10 @@
     <t>Ninguno</t>
   </si>
   <si>
-    <t>Investigacion</t>
+    <t xml:space="preserve">[Investigacion CSS,HTML, MVC. Creacion del proyecto en block de notas. Revision tutoriales HTML  </t>
+  </si>
+  <si>
+    <t>Investigacion programacion html, avance de la pagina</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -678,8 +681,12 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="4">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -835,7 +842,7 @@
     <row r="32" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="9">
         <f>SUM(C5:C31)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25"/>

--- a/Seguimiento Servicio Social.xlsx
+++ b/Seguimiento Servicio Social.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio Omar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio Omar\Documents\GitHub\servicio-social\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Semana</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Investigacion programacion html, avance de la pagina</t>
+  </si>
+  <si>
+    <t>Mejoras a la pagina e investigacion de nuevas caracteristicas</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -693,8 +696,12 @@
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -842,7 +849,7 @@
     <row r="32" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="9">
         <f>SUM(C5:C31)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25"/>

--- a/Seguimiento Servicio Social.xlsx
+++ b/Seguimiento Servicio Social.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Semana</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>Mejoras a la pagina e investigacion de nuevas caracteristicas</t>
+  </si>
+  <si>
+    <t>Fue semana de examenes, y no tube mucho tiempo</t>
+  </si>
+  <si>
+    <t>4 Octubre - 11 Octubre</t>
+  </si>
+  <si>
+    <t>11 Octubre - 18- Octubre</t>
+  </si>
+  <si>
+    <t>18 Octubre - 25 Octubre</t>
   </si>
 </sst>
 </file>
@@ -603,7 +615,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -708,9 +720,13 @@
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
@@ -721,19 +737,25 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>

--- a/Seguimiento Servicio Social.xlsx
+++ b/Seguimiento Servicio Social.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Semana</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>18 Octubre - 25 Octubre</t>
+  </si>
+  <si>
+    <t>investigacion html, css para aplicación de pagina en horizontal</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -732,8 +735,12 @@
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -871,7 +878,7 @@
     <row r="32" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="9">
         <f>SUM(C5:C31)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25"/>
